--- a/2.Design/Template/Thong_tin_hang_trong_kho.xlsx
+++ b/2.Design/Template/Thong_tin_hang_trong_kho.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F1CEDA-0447-4ACF-BF32-A43C5F558C10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C4D214-A1E7-4733-A8F8-5EA9CF06CAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="10" windowWidth="19180" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -502,7 +502,7 @@
     <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
     <col min="3" max="3" width="52.6328125" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.54296875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.26953125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" style="6" customWidth="1"/>
     <col min="7" max="7" width="9.08984375" style="6" customWidth="1"/>
     <col min="8" max="8" width="16.453125" style="6" customWidth="1"/>

--- a/2.Design/Template/Thong_tin_hang_trong_kho.xlsx
+++ b/2.Design/Template/Thong_tin_hang_trong_kho.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C4D214-A1E7-4733-A8F8-5EA9CF06CAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D57078-A92C-4517-943B-DF0F3CFE2151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
@@ -80,6 +80,13 @@
   </si>
   <si>
     <t>Thời gian xuất báo cáo: ${date}</t>
+  </si>
+  <si>
+    <t>Số lượng
+đáp ứng</t>
+  </si>
+  <si>
+    <t>${item.issueAmountValue}</t>
   </si>
 </sst>
 </file>
@@ -490,25 +497,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="52.6328125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="37.54296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="5" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -519,8 +526,9 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
@@ -531,8 +539,9 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -552,13 +561,16 @@
         <v>3</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -569,8 +581,9 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -589,14 +602,17 @@
       <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -607,11 +623,12 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2.Design/Template/Thong_tin_hang_trong_kho.xlsx
+++ b/2.Design/Template/Thong_tin_hang_trong_kho.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D57078-A92C-4517-943B-DF0F3CFE2151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6999A9-4A50-4D00-8DD5-4D5CA45C4F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -29,9 +35,6 @@
   </si>
   <si>
     <t>Tên hàng</t>
-  </si>
-  <si>
-    <t>Số lượng</t>
   </si>
   <si>
     <t>&lt;jx:forEach items="${items}" var="item" varStatus="status"&gt;</t>
@@ -87,6 +90,15 @@
   </si>
   <si>
     <t>${item.issueAmountValue}</t>
+  </si>
+  <si>
+    <t>Số lượng yêu cầu</t>
+  </si>
+  <si>
+    <t>Số lượng tồn kho</t>
+  </si>
+  <si>
+    <t>${item.orderAmountValue}</t>
   </si>
 </sst>
 </file>
@@ -497,27 +509,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="5" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="35" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="32.08984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -527,10 +541,11 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -540,8 +555,9 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -552,27 +568,30 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -582,39 +601,43 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -624,11 +647,12 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2.Design/Template/Thong_tin_hang_trong_kho.xlsx
+++ b/2.Design/Template/Thong_tin_hang_trong_kho.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6999A9-4A50-4D00-8DD5-4D5CA45C4F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F204743E-44E4-469E-8297-FC5C76CBDBDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Kho</t>
   </si>
   <si>
-    <t>Thời gian cập nhật</t>
-  </si>
-  <si>
     <t>${item.goodsStateName}</t>
   </si>
   <si>
@@ -85,20 +82,41 @@
     <t>Thời gian xuất báo cáo: ${date}</t>
   </si>
   <si>
+    <t>${item.issueAmountValue}</t>
+  </si>
+  <si>
+    <t>Số lượng tồn kho</t>
+  </si>
+  <si>
+    <t>${item.orderAmountValue}</t>
+  </si>
+  <si>
+    <t>Số lượng yêu cầu xuất</t>
+  </si>
+  <si>
+    <t>Xuất kho</t>
+  </si>
+  <si>
+    <t>Tồn kho</t>
+  </si>
+  <si>
+    <t>Số lượng định mức tồn kho</t>
+  </si>
+  <si>
+    <t>Số lượng chênh lệch định mức</t>
+  </si>
+  <si>
+    <t>Thời gian cập nhật gần nhất</t>
+  </si>
+  <si>
     <t>Số lượng
-đáp ứng</t>
-  </si>
-  <si>
-    <t>${item.issueAmountValue}</t>
-  </si>
-  <si>
-    <t>Số lượng yêu cầu</t>
-  </si>
-  <si>
-    <t>Số lượng tồn kho</t>
-  </si>
-  <si>
-    <t>${item.orderAmountValue}</t>
+còn lại đáp ứng</t>
+  </si>
+  <si>
+    <t>${item.amountStoreQuotaValue}</t>
+  </si>
+  <si>
+    <t>${item.issueAmountStorageQuotaValue}</t>
   </si>
 </sst>
 </file>
@@ -138,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +172,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,9 +241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -228,6 +255,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,150 +551,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="35" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="32.08984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="I6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
